--- a/data/raw_data/2014/permits-issued-by-nationality 2014.xlsx
+++ b/data/raw_data/2014/permits-issued-by-nationality 2014.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2014\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7686D49-58E6-4F4F-9D90-C0BDE27E1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="15300" windowHeight="8736"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$105</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>Year</t>
   </si>
@@ -121,18 +141,12 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -151,15 +165,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea (Republic of (South))</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -178,9 +183,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -196,9 +198,6 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -229,12 +228,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Palestinian Territory,Occupied</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -247,24 +240,12 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
@@ -283,27 +264,12 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
-    <t>Trinidad &amp; Tobago</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -322,9 +288,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -344,12 +307,45 @@
   </si>
   <si>
     <t>Angola</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,6 +458,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -509,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +541,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,6 +593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,22 +785,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -790,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2014</v>
       </c>
@@ -812,7 +845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -834,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -856,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -878,10 +911,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -900,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -922,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -944,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -966,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -988,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1010,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -1032,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1054,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1076,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1098,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
@@ -1120,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -1142,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -1164,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -1186,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -1208,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
@@ -1230,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -1252,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -1274,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>27</v>
@@ -1296,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -1318,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>29</v>
@@ -1340,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -1362,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1384,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
         <v>32</v>
@@ -1406,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>33</v>
@@ -1428,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -1450,10 +1483,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -1472,10 +1505,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>1506</v>
@@ -1494,10 +1527,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>7</v>
@@ -1516,10 +1549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -1538,10 +1571,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>21</v>
@@ -1560,10 +1593,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <v>264</v>
@@ -1582,10 +1615,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>83</v>
@@ -1604,10 +1637,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1">
         <v>14</v>
@@ -1626,10 +1659,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -1648,10 +1681,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -1670,10 +1703,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -1692,10 +1725,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>24</v>
@@ -1714,10 +1747,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -1736,10 +1769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -1758,10 +1791,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1780,10 +1813,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -1802,10 +1835,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1">
         <v>23</v>
@@ -1824,10 +1857,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -1846,10 +1879,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -1868,10 +1901,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1890,10 +1923,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1">
         <v>165</v>
@@ -1912,10 +1945,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -1934,10 +1967,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
@@ -1956,10 +1989,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1">
         <v>26</v>
@@ -1978,10 +2011,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2000,10 +2033,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -2022,10 +2055,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2044,10 +2077,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1">
         <v>11</v>
@@ -2066,10 +2099,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
@@ -2088,10 +2121,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
@@ -2110,10 +2143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1">
         <v>37</v>
@@ -2132,10 +2165,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -2154,10 +2187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -2176,10 +2209,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1">
         <v>76</v>
@@ -2198,10 +2231,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
@@ -2220,10 +2253,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1">
         <v>443</v>
@@ -2242,10 +2275,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
@@ -2264,10 +2297,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2286,10 +2319,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -2308,10 +2341,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
@@ -2330,10 +2363,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1">
         <v>88</v>
@@ -2352,10 +2385,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -2374,10 +2407,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C74" s="1">
         <v>12</v>
@@ -2396,10 +2429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -2418,10 +2451,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1">
         <v>99</v>
@@ -2440,10 +2473,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
@@ -2462,10 +2495,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
@@ -2484,10 +2517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
@@ -2506,10 +2539,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -2528,10 +2561,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C81" s="1">
         <v>7</v>
@@ -2550,10 +2583,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -2572,10 +2605,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C83" s="1">
         <v>71</v>
@@ -2594,10 +2627,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1">
         <v>34</v>
@@ -2616,10 +2649,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C85" s="1">
         <v>122</v>
@@ -2638,10 +2671,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -2660,10 +2693,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1">
         <v>13</v>
@@ -2682,10 +2715,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1">
         <v>7</v>
@@ -2704,10 +2737,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1">
         <v>3</v>
@@ -2726,10 +2759,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C90" s="1">
         <v>13</v>
@@ -2748,10 +2781,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C91" s="1">
         <v>14</v>
@@ -2770,10 +2803,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -2792,10 +2825,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C93" s="1">
         <v>3</v>
@@ -2814,10 +2847,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C94" s="1">
         <v>88</v>
@@ -2836,10 +2869,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -2858,10 +2891,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C96" s="1">
         <v>70</v>
@@ -2880,10 +2913,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1">
         <v>7</v>
@@ -2902,10 +2935,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -2924,10 +2957,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="1">
         <v>597</v>
@@ -2946,10 +2979,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -2968,10 +3001,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -2990,10 +3023,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C102" s="1">
         <v>37</v>
@@ -3012,10 +3045,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C103" s="1">
         <v>5</v>
@@ -3034,10 +3067,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -3056,10 +3089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C105" s="1">
         <v>5</v>
@@ -3078,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3086,6 +3119,7 @@
       <c r="E106" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>